--- a/src/predicciones/holt_winters/producto_38.xlsx
+++ b/src/predicciones/holt_winters/producto_38.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,726 +404,726 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44936</v>
       </c>
       <c r="B2">
-        <v>1.329828306512019</v>
+        <v>0.9794951700604777</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44946</v>
       </c>
       <c r="B3">
-        <v>1.260635199011282</v>
+        <v>0.9832301327074928</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44955</v>
       </c>
       <c r="B4">
-        <v>1.275713561045303</v>
+        <v>0.9794878022734681</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44959</v>
       </c>
       <c r="B5">
-        <v>1.238429988627136</v>
+        <v>0.9794869804208192</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44968</v>
       </c>
       <c r="B6">
-        <v>1.529636161823637</v>
+        <v>1.979485983843376</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44970</v>
       </c>
       <c r="B7">
-        <v>1.198947064211042</v>
+        <v>0.9832497919185968</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44981</v>
       </c>
       <c r="B8">
-        <v>0.9834643257847431</v>
+        <v>0.9590538190371047</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44983</v>
       </c>
       <c r="B9">
-        <v>1.324517982508982</v>
+        <v>0.9590663674954805</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44989</v>
       </c>
       <c r="B10">
-        <v>1.255324875008245</v>
+        <v>0.9628013301424956</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44990</v>
       </c>
       <c r="B11">
-        <v>1.270403237042266</v>
+        <v>0.9590589997084709</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44999</v>
       </c>
       <c r="B12">
-        <v>1.233119664624099</v>
+        <v>0.9590581778558219</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>45001</v>
       </c>
       <c r="B13">
-        <v>1.524325837820601</v>
+        <v>1.959057181278378</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45009</v>
       </c>
       <c r="B14">
-        <v>1.193636740208006</v>
+        <v>0.9628209893535996</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45015</v>
       </c>
       <c r="B15">
-        <v>0.9781540017817063</v>
+        <v>0.9386250164721075</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45018</v>
       </c>
       <c r="B16">
-        <v>1.319207658505945</v>
+        <v>0.9386375649304832</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45029</v>
       </c>
       <c r="B17">
-        <v>1.250014551005209</v>
+        <v>0.9423725275774983</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45044</v>
       </c>
       <c r="B18">
-        <v>1.26509291303923</v>
+        <v>0.9386301971434736</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45050</v>
       </c>
       <c r="B19">
-        <v>1.227809340621063</v>
+        <v>0.9386293752908247</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45051</v>
       </c>
       <c r="B20">
-        <v>1.519015513817564</v>
+        <v>1.938628378713381</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45055</v>
       </c>
       <c r="B21">
-        <v>1.188326416204969</v>
+        <v>0.9423921867886021</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45060</v>
       </c>
       <c r="B22">
-        <v>0.9728436777786698</v>
+        <v>0.91819621390711</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45062</v>
       </c>
       <c r="B23">
-        <v>1.313897334502909</v>
+        <v>0.918208762365486</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45068</v>
       </c>
       <c r="B24">
-        <v>1.244704227002172</v>
+        <v>0.9219437250125011</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45070</v>
       </c>
       <c r="B25">
-        <v>1.259782589036193</v>
+        <v>0.9182013945784764</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45081</v>
       </c>
       <c r="B26">
-        <v>1.222499016618026</v>
+        <v>0.9182005727258274</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45089</v>
       </c>
       <c r="B27">
-        <v>1.513705189814528</v>
+        <v>1.918199576148384</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45091</v>
       </c>
       <c r="B28">
-        <v>1.183016092201933</v>
+        <v>0.9219633842236049</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45096</v>
       </c>
       <c r="B29">
-        <v>0.9675333537756332</v>
+        <v>0.8977674113421128</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45106</v>
       </c>
       <c r="B30">
-        <v>1.308587010499872</v>
+        <v>0.8977799598004885</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45111</v>
       </c>
       <c r="B31">
-        <v>1.239393902999135</v>
+        <v>0.9015149224475036</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45114</v>
       </c>
       <c r="B32">
-        <v>1.254472265033156</v>
+        <v>0.8977725920134791</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45121</v>
       </c>
       <c r="B33">
-        <v>1.21718869261499</v>
+        <v>0.8977717701608302</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45122</v>
       </c>
       <c r="B34">
-        <v>1.508394865811491</v>
+        <v>1.897770773583386</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45127</v>
       </c>
       <c r="B35">
-        <v>1.177705768198896</v>
+        <v>0.9015345816586077</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45133</v>
       </c>
       <c r="B36">
-        <v>0.9622230297725967</v>
+        <v>0.8773386087771156</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45136</v>
       </c>
       <c r="B37">
-        <v>1.303276686496835</v>
+        <v>0.8773511572354913</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45141</v>
       </c>
       <c r="B38">
-        <v>1.234083578996099</v>
+        <v>0.8810861198825064</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45145</v>
       </c>
       <c r="B39">
-        <v>1.24916194103012</v>
+        <v>0.8773437894484817</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45150</v>
       </c>
       <c r="B40">
-        <v>1.211878368611953</v>
+        <v>0.8773429675958327</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45154</v>
       </c>
       <c r="B41">
-        <v>1.503084541808454</v>
+        <v>1.877341971018389</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45155</v>
       </c>
       <c r="B42">
-        <v>1.17239544419586</v>
+        <v>0.8811057790936104</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45158</v>
       </c>
       <c r="B43">
-        <v>0.9569127057695599</v>
+        <v>0.8569098062121183</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45160</v>
       </c>
       <c r="B44">
-        <v>1.297966362493799</v>
+        <v>0.856922354670494</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45163</v>
       </c>
       <c r="B45">
-        <v>1.228773254993062</v>
+        <v>0.8606573173175092</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45165</v>
       </c>
       <c r="B46">
-        <v>1.243851617027083</v>
+        <v>0.8569149868834844</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45166</v>
       </c>
       <c r="B47">
-        <v>1.206568044608916</v>
+        <v>0.8569141650308355</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45174</v>
       </c>
       <c r="B48">
-        <v>1.497774217805417</v>
+        <v>1.856913168453392</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45185</v>
       </c>
       <c r="B49">
-        <v>1.167085120192823</v>
+        <v>0.8606769765286131</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45199</v>
       </c>
       <c r="B50">
-        <v>0.9516023817665233</v>
+        <v>0.8364810036471209</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45220</v>
       </c>
       <c r="B51">
-        <v>1.292656038490762</v>
+        <v>0.8364935521054968</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45221</v>
       </c>
       <c r="B52">
-        <v>1.223462930990025</v>
+        <v>0.8402285147525119</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45222</v>
       </c>
       <c r="B53">
-        <v>1.238541293024047</v>
+        <v>0.8364861843184872</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45223</v>
       </c>
       <c r="B54">
-        <v>1.20125772060588</v>
+        <v>0.8364853624658383</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45234</v>
       </c>
       <c r="B55">
-        <v>1.492463893802381</v>
+        <v>1.836484365888394</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45246</v>
       </c>
       <c r="B56">
-        <v>1.161774796189786</v>
+        <v>0.8402481739636158</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45249</v>
       </c>
       <c r="B57">
-        <v>0.9462920577634868</v>
+        <v>0.8160522010821236</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45250</v>
       </c>
       <c r="B58">
-        <v>1.287345714487726</v>
+        <v>0.8160647495404996</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45260</v>
       </c>
       <c r="B59">
-        <v>1.218152606986989</v>
+        <v>0.8197997121875146</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45264</v>
       </c>
       <c r="B60">
-        <v>1.23323096902101</v>
+        <v>0.81605738175349</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45273</v>
       </c>
       <c r="B61">
-        <v>1.195947396602843</v>
+        <v>0.816056559900841</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45274</v>
       </c>
       <c r="B62">
-        <v>1.487153569799344</v>
+        <v>1.816055563323397</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45276</v>
       </c>
       <c r="B63">
-        <v>1.15646447218675</v>
+        <v>0.8198193713986185</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45303</v>
       </c>
       <c r="B64">
-        <v>0.94098173376045</v>
+        <v>0.7956233985171264</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45319</v>
       </c>
       <c r="B65">
-        <v>1.282035390484689</v>
+        <v>0.7956359469755023</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45323</v>
       </c>
       <c r="B66">
-        <v>1.212842282983952</v>
+        <v>0.7993709096225173</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45327</v>
       </c>
       <c r="B67">
-        <v>1.227920645017973</v>
+        <v>0.7956285791884925</v>
       </c>
       <c r="C67">
         <v>1</v>
